--- a/inputData/inputData03_US/fakeCarrierDataFEMAreduced.xlsx
+++ b/inputData/inputData03_US/fakeCarrierDataFEMAreduced.xlsx
@@ -974,8 +974,8 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <f>E2/1.61/14968</f>
-        <v>1.6183593322068444E-4</v>
+        <f>E2/1.61/14968*10</f>
+        <v>1.6183593322068445E-3</v>
       </c>
       <c r="E2">
         <v>3.9</v>
@@ -1017,8 +1017,8 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">E3/1.61/14968</f>
-        <v>1.4938701528063181E-4</v>
+        <f t="shared" ref="D3:D21" si="0">E3/1.61/14968*10</f>
+        <v>1.493870152806318E-3</v>
       </c>
       <c r="E3">
         <v>3.6</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.4108773665393005E-4</v>
+        <v>1.4108773665393005E-3</v>
       </c>
       <c r="E4">
         <v>3.4</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>3.8176681682828125E-4</v>
+        <v>3.8176681682828124E-3</v>
       </c>
       <c r="E5">
         <v>9.1999999999999993</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.2448917940052651E-4</v>
+        <v>1.2448917940052651E-3</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.1618990077382472E-4</v>
+        <v>1.1618990077382472E-3</v>
       </c>
       <c r="E7">
         <v>2.8</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.1204026146047385E-4</v>
+        <v>1.1204026146047386E-3</v>
       </c>
       <c r="E8">
         <v>2.7</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.8632511262121095E-4</v>
+        <v>2.8632511262121096E-3</v>
       </c>
       <c r="E9">
         <v>6.9</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.5353665459398271E-4</v>
+        <v>1.535366545939827E-3</v>
       </c>
       <c r="E10">
         <v>3.7</v>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.4523737596728093E-4</v>
+        <v>1.4523737596728093E-3</v>
       </c>
       <c r="E11">
         <v>3.5</v>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1.4108773665393005E-4</v>
+        <v>1.4108773665393005E-3</v>
       </c>
       <c r="E12">
         <v>3.4</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.7761717751493034E-4</v>
+        <v>3.7761717751493033E-3</v>
       </c>
       <c r="E13">
         <v>9.1</v>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.2033954008717561E-4</v>
+        <v>1.203395400871756E-3</v>
       </c>
       <c r="E14">
         <v>2.9</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1.1618990077382472E-4</v>
+        <v>1.1618990077382472E-3</v>
       </c>
       <c r="E15">
         <v>2.8</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1.1204026146047385E-4</v>
+        <v>1.1204026146047386E-3</v>
       </c>
       <c r="E16">
         <v>2.7</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>3.2782150575471979E-4</v>
+        <v>3.278215057547198E-3</v>
       </c>
       <c r="E17">
         <v>7.9</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>1.5353665459398271E-4</v>
+        <v>1.535366545939827E-3</v>
       </c>
       <c r="E18">
         <v>3.7</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1.4938701528063181E-4</v>
+        <v>1.493870152806318E-3</v>
       </c>
       <c r="E19">
         <v>3.6</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>1.3693809734057914E-4</v>
+        <v>1.3693809734057914E-3</v>
       </c>
       <c r="E20">
         <v>3.3</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>3.7761717751493034E-4</v>
+        <v>3.7761717751493033E-3</v>
       </c>
       <c r="E21">
         <v>9.1</v>
